--- a/doc/見積もり_テストケース.xlsx
+++ b/doc/見積もり_テストケース.xlsx
@@ -1,17 +1,18 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="28312"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="28318"/>
   <workbookPr/>
-  <xr:revisionPtr revIDLastSave="690" documentId="11_3F8216BDF2DCCE836B02CE998F0AE45F5E522874" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{8B670DA1-ED49-46B4-A4B2-554CC716712D}"/>
+  <xr:revisionPtr revIDLastSave="1034" documentId="11_3F8216BDF2DCCE836B02CE998F0AE45F5E522874" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{81D9518A-E9D9-4D60-8493-3F66F4163CBD}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" firstSheet="2" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" firstSheet="3" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="見積もり依頼送信・詳細" sheetId="1" r:id="rId1"/>
     <sheet name="見積もり依頼受信・編集" sheetId="3" r:id="rId2"/>
     <sheet name="見積もり依頼受信・確認_詳細" sheetId="4" r:id="rId3"/>
-    <sheet name="Sheet1" sheetId="2" r:id="rId4"/>
+    <sheet name="商品価格バリデーション" sheetId="5" r:id="rId4"/>
+    <sheet name="Sheet1" sheetId="2" r:id="rId5"/>
   </sheets>
   <calcPr calcId="191028"/>
   <extLst>
@@ -34,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="552" uniqueCount="155">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="684" uniqueCount="239">
   <si>
     <t>テスト対象</t>
   </si>
@@ -565,6 +566,287 @@
   <si>
     <t>以下の文言であること
 完了しました</t>
+  </si>
+  <si>
+    <t>有効値</t>
+  </si>
+  <si>
+    <t>期待する効果</t>
+  </si>
+  <si>
+    <t>単項目</t>
+  </si>
+  <si>
+    <t>商品ID</t>
+  </si>
+  <si>
+    <t>半角数字</t>
+  </si>
+  <si>
+    <t>必須</t>
+  </si>
+  <si>
+    <t>未入力</t>
+  </si>
+  <si>
+    <t>「ID」は入力必須項目です。</t>
+  </si>
+  <si>
+    <t>存在</t>
+  </si>
+  <si>
+    <t>登録されていない商品ID</t>
+  </si>
+  <si>
+    <t>登録済みの商品IDを設定してください。</t>
+  </si>
+  <si>
+    <t>全角数字</t>
+  </si>
+  <si>
+    <t>存在する商品IDの全角数字</t>
+  </si>
+  <si>
+    <t>別の出展者が作成した商品ID</t>
+  </si>
+  <si>
+    <t>登録できてしまう？</t>
+  </si>
+  <si>
+    <t>商品名</t>
+  </si>
+  <si>
+    <t>50文字以内文字列</t>
+  </si>
+  <si>
+    <t>「商品名」は入力必須項目です。</t>
+  </si>
+  <si>
+    <t>全角スペース</t>
+  </si>
+  <si>
+    <t>半角スペース</t>
+  </si>
+  <si>
+    <t>最大文字数</t>
+  </si>
+  <si>
+    <t>51文字</t>
+  </si>
+  <si>
+    <t>「商品名」は50文字以内で入力してください。</t>
+  </si>
+  <si>
+    <t>禁止文字</t>
+  </si>
+  <si>
+    <t>何がしか</t>
+  </si>
+  <si>
+    <t>税率</t>
+  </si>
+  <si>
+    <t>1 or 2</t>
+  </si>
+  <si>
+    <t>「税率」は入力必須項目です。</t>
+  </si>
+  <si>
+    <t>全角数字の１</t>
+  </si>
+  <si>
+    <t>「税率」は「1」、もしくは「2」を入力してください。</t>
+  </si>
+  <si>
+    <t>半角数字の0</t>
+  </si>
+  <si>
+    <t>価格種別</t>
+  </si>
+  <si>
+    <t>1 or 2 or 3</t>
+  </si>
+  <si>
+    <t>「価格種別」は入力必須項目です。</t>
+  </si>
+  <si>
+    <t>全角数字（ex. １）</t>
+  </si>
+  <si>
+    <t>「価格種別」は「1」「2」もしくは「3」を入力してください。</t>
+  </si>
+  <si>
+    <t>顧客グループID</t>
+  </si>
+  <si>
+    <t>半角数字 かつ 
+自身が作成した顧客グループID</t>
+  </si>
+  <si>
+    <t>「顧客グループID」は入力必須項目です。</t>
+  </si>
+  <si>
+    <t>別の出展者が作成した顧客グループID</t>
+  </si>
+  <si>
+    <t>「顧客グループID」は正しく入力してください。</t>
+  </si>
+  <si>
+    <t>全角数字 かつ 
+自身が作成した顧客グループID</t>
+  </si>
+  <si>
+    <t>消費税別・込</t>
+  </si>
+  <si>
+    <t>未入力
+「非表示価格」が未入力</t>
+  </si>
+  <si>
+    <t>「消費税別・込」は入力必須項目です。</t>
+  </si>
+  <si>
+    <t>全角数字の１
+「非表示価格」が未入力</t>
+  </si>
+  <si>
+    <t>「消費税別・込」は「1」、もしくは「2」を入力してください。</t>
+  </si>
+  <si>
+    <t>半角数字の0
+「非表示価格」が未入力</t>
+  </si>
+  <si>
+    <t>価格</t>
+  </si>
+  <si>
+    <t>正の整数（半角数字）かつ 
+9桁以内</t>
+  </si>
+  <si>
+    <t>「価格」は入力必須項目です。</t>
+  </si>
+  <si>
+    <t>最大桁数</t>
+  </si>
+  <si>
+    <t>10桁の半角数字
+「非表示価格」が未入力</t>
+  </si>
+  <si>
+    <t>「価格」は9桁以内で入力してください。</t>
+  </si>
+  <si>
+    <t>「価格」に「0」は入力できません。
+9桁以内、1以上の整数で入力してください。</t>
+  </si>
+  <si>
+    <t>小数</t>
+  </si>
+  <si>
+    <t>小数（100.1）
+「非表示価格」が未入力</t>
+  </si>
+  <si>
+    <t>「価格」は1以上の整数、半角数字で入力してください。</t>
+  </si>
+  <si>
+    <t>非表示価格</t>
+  </si>
+  <si>
+    <t>15文字以内文字列</t>
+  </si>
+  <si>
+    <t>未入力
+「消費税別・込」「価格」が未入力</t>
+  </si>
+  <si>
+    <t>「非表示価格」は入力必須項目です。</t>
+  </si>
+  <si>
+    <t>全角スペース
+「消費税別・込」「価格」が未入力</t>
+  </si>
+  <si>
+    <t>半角スペース
+「消費税別・込」「価格」が未入力</t>
+  </si>
+  <si>
+    <t>16文字
+「消費税別・込」「価格」が未入力</t>
+  </si>
+  <si>
+    <t>「非表示価格」は15文字以内で入力してください。</t>
+  </si>
+  <si>
+    <t>何がしか
+「消費税別・込」「価格」が未入力</t>
+  </si>
+  <si>
+    <t>価格備考</t>
+  </si>
+  <si>
+    <t>30文字以内文字列</t>
+  </si>
+  <si>
+    <t>31文字</t>
+  </si>
+  <si>
+    <t>「価格備考」は30文字以内で入力してください。</t>
+  </si>
+  <si>
+    <t>複合項目</t>
+  </si>
+  <si>
+    <t>消費税別・込
+価格</t>
+  </si>
+  <si>
+    <t>両方必須</t>
+  </si>
+  <si>
+    <t>「価格」が未入力</t>
+  </si>
+  <si>
+    <t>「消費税別・込」が入力済み
+「非表示価格」が未入力</t>
+  </si>
+  <si>
+    <t>「消費税別・込」が未入力</t>
+  </si>
+  <si>
+    <t>「価格」が入力済み
+「非表示価格」が未入力</t>
+  </si>
+  <si>
+    <t>消費税別・込
+価格
+非表示価格</t>
+  </si>
+  <si>
+    <t>「消費税別・込 and 価格」
+か
+「非表示価格」</t>
+  </si>
+  <si>
+    <t>「価格」
+「消費税別・込」
+「非表示価格」全て入力済み</t>
+  </si>
+  <si>
+    <t>「消費税別・込」が入力済み
+「価格」が入力済み
+「非表示価格」が入力済み</t>
+  </si>
+  <si>
+    <t>「価格」
+「消費税別・込」
+「非表示価格」全て未入力</t>
+  </si>
+  <si>
+    <t>「消費税別・込」が未入力
+「価格」が未入力
+「非表示価格」が未入力</t>
   </si>
 </sst>
 </file>
@@ -607,7 +889,7 @@
       <name val="メイリオ"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -632,6 +914,18 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00B0F0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -645,7 +939,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
@@ -691,6 +985,18 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2422,7 +2728,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E2E2FFD5-0408-4AB2-888C-441B8D11EB58}">
   <dimension ref="A1:E78"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
@@ -3210,6 +3516,588 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B028BF9B-99D9-4DA2-A944-6AD3057E3E9C}">
+  <dimension ref="A1:E73"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5"/>
+  <cols>
+    <col min="1" max="1" width="17.25" style="6" customWidth="1"/>
+    <col min="2" max="2" width="27.625" style="6" customWidth="1"/>
+    <col min="3" max="3" width="32.375" style="6" customWidth="1"/>
+    <col min="4" max="4" width="36" style="6" customWidth="1"/>
+    <col min="5" max="5" width="39.125" style="6" customWidth="1"/>
+    <col min="6" max="16384" width="9" style="6"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5">
+      <c r="A1" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="6" t="s">
+        <v>155</v>
+      </c>
+      <c r="C1" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="6" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5">
+      <c r="A2" s="9" t="s">
+        <v>157</v>
+      </c>
+      <c r="C2" s="7"/>
+    </row>
+    <row r="3" spans="1:5">
+      <c r="A3" s="11" t="s">
+        <v>158</v>
+      </c>
+      <c r="B3" s="11" t="s">
+        <v>159</v>
+      </c>
+      <c r="C3" s="7" t="s">
+        <v>160</v>
+      </c>
+      <c r="D3" s="6" t="s">
+        <v>161</v>
+      </c>
+      <c r="E3" s="6" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5">
+      <c r="A4" s="8"/>
+      <c r="B4" s="8"/>
+      <c r="C4" s="6" t="s">
+        <v>163</v>
+      </c>
+      <c r="D4" s="7" t="s">
+        <v>164</v>
+      </c>
+      <c r="E4" s="6" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5">
+      <c r="A5" s="8"/>
+      <c r="B5" s="8"/>
+      <c r="C5" s="16" t="s">
+        <v>166</v>
+      </c>
+      <c r="D5" s="7" t="s">
+        <v>167</v>
+      </c>
+      <c r="E5" s="6" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5">
+      <c r="C6" s="6" t="s">
+        <v>168</v>
+      </c>
+      <c r="D6" s="6" t="s">
+        <v>168</v>
+      </c>
+      <c r="E6" s="6" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5">
+      <c r="A7" s="11" t="s">
+        <v>170</v>
+      </c>
+      <c r="B7" s="11" t="s">
+        <v>171</v>
+      </c>
+      <c r="C7" s="6" t="s">
+        <v>160</v>
+      </c>
+      <c r="D7" s="7" t="s">
+        <v>161</v>
+      </c>
+      <c r="E7" s="6" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5">
+      <c r="A8" s="11"/>
+      <c r="B8" s="11"/>
+      <c r="C8" s="11" t="s">
+        <v>173</v>
+      </c>
+      <c r="D8" s="7" t="s">
+        <v>173</v>
+      </c>
+      <c r="E8" s="6" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5">
+      <c r="A9" s="11"/>
+      <c r="B9" s="11"/>
+      <c r="C9" s="11" t="s">
+        <v>174</v>
+      </c>
+      <c r="D9" s="11" t="s">
+        <v>174</v>
+      </c>
+      <c r="E9" s="6" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5">
+      <c r="A10" s="11"/>
+      <c r="B10" s="11"/>
+      <c r="C10" s="6" t="s">
+        <v>175</v>
+      </c>
+      <c r="D10" s="7" t="s">
+        <v>176</v>
+      </c>
+      <c r="E10" s="6" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5">
+      <c r="A11" s="11"/>
+      <c r="B11" s="11"/>
+      <c r="C11" s="16" t="s">
+        <v>178</v>
+      </c>
+      <c r="D11" s="7" t="s">
+        <v>179</v>
+      </c>
+      <c r="E11" s="6" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5">
+      <c r="A12" s="11" t="s">
+        <v>180</v>
+      </c>
+      <c r="B12" s="11" t="s">
+        <v>181</v>
+      </c>
+      <c r="C12" s="7" t="s">
+        <v>160</v>
+      </c>
+      <c r="D12" s="7" t="s">
+        <v>161</v>
+      </c>
+      <c r="E12" s="6" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" ht="32.25">
+      <c r="A13" s="11"/>
+      <c r="B13" s="11"/>
+      <c r="C13" s="7" t="s">
+        <v>166</v>
+      </c>
+      <c r="D13" s="7" t="s">
+        <v>183</v>
+      </c>
+      <c r="E13" s="7" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5">
+      <c r="A14" s="11"/>
+      <c r="B14" s="11"/>
+      <c r="C14" s="7">
+        <v>0</v>
+      </c>
+      <c r="D14" s="7" t="s">
+        <v>185</v>
+      </c>
+      <c r="E14" s="6" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5">
+      <c r="A15" s="6" t="s">
+        <v>186</v>
+      </c>
+      <c r="B15" s="11" t="s">
+        <v>187</v>
+      </c>
+      <c r="C15" s="6" t="s">
+        <v>160</v>
+      </c>
+      <c r="D15" s="7" t="s">
+        <v>161</v>
+      </c>
+      <c r="E15" s="6" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" ht="32.25">
+      <c r="C16" s="6" t="s">
+        <v>166</v>
+      </c>
+      <c r="D16" s="7" t="s">
+        <v>189</v>
+      </c>
+      <c r="E16" s="7" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" ht="32.25">
+      <c r="A17" s="6" t="s">
+        <v>191</v>
+      </c>
+      <c r="B17" s="7" t="s">
+        <v>192</v>
+      </c>
+      <c r="C17" s="6" t="s">
+        <v>160</v>
+      </c>
+      <c r="D17" s="6" t="s">
+        <v>161</v>
+      </c>
+      <c r="E17" s="6" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5">
+      <c r="C18" s="6" t="s">
+        <v>194</v>
+      </c>
+      <c r="D18" s="6" t="s">
+        <v>194</v>
+      </c>
+      <c r="E18" s="6" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" ht="32.25">
+      <c r="C19" s="6" t="s">
+        <v>166</v>
+      </c>
+      <c r="D19" s="7" t="s">
+        <v>196</v>
+      </c>
+      <c r="E19" s="7" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" ht="32.25">
+      <c r="A20" s="6" t="s">
+        <v>197</v>
+      </c>
+      <c r="B20" s="11" t="s">
+        <v>181</v>
+      </c>
+      <c r="C20" s="7" t="s">
+        <v>160</v>
+      </c>
+      <c r="D20" s="7" t="s">
+        <v>198</v>
+      </c>
+      <c r="E20" s="6" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" ht="32.25">
+      <c r="C21" s="7" t="s">
+        <v>166</v>
+      </c>
+      <c r="D21" s="7" t="s">
+        <v>200</v>
+      </c>
+      <c r="E21" s="7" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" ht="32.25">
+      <c r="C22" s="7">
+        <v>0</v>
+      </c>
+      <c r="D22" s="7" t="s">
+        <v>202</v>
+      </c>
+      <c r="E22" s="6" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" ht="32.25">
+      <c r="A23" s="6" t="s">
+        <v>203</v>
+      </c>
+      <c r="B23" s="7" t="s">
+        <v>204</v>
+      </c>
+      <c r="C23" s="7" t="s">
+        <v>160</v>
+      </c>
+      <c r="D23" s="7" t="s">
+        <v>198</v>
+      </c>
+      <c r="E23" s="6" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" ht="32.25">
+      <c r="C24" s="6" t="s">
+        <v>206</v>
+      </c>
+      <c r="D24" s="7" t="s">
+        <v>207</v>
+      </c>
+      <c r="E24" s="6" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" ht="32.25">
+      <c r="C25" s="6">
+        <v>0</v>
+      </c>
+      <c r="D25" s="7" t="s">
+        <v>202</v>
+      </c>
+      <c r="E25" s="7" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" ht="32.25">
+      <c r="C26" s="6" t="s">
+        <v>210</v>
+      </c>
+      <c r="D26" s="7" t="s">
+        <v>211</v>
+      </c>
+      <c r="E26" s="7" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" ht="32.25">
+      <c r="A27" s="6" t="s">
+        <v>213</v>
+      </c>
+      <c r="B27" s="6" t="s">
+        <v>214</v>
+      </c>
+      <c r="C27" s="7" t="s">
+        <v>160</v>
+      </c>
+      <c r="D27" s="7" t="s">
+        <v>215</v>
+      </c>
+      <c r="E27" s="6" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" ht="32.25">
+      <c r="C28" s="11" t="s">
+        <v>173</v>
+      </c>
+      <c r="D28" s="7" t="s">
+        <v>217</v>
+      </c>
+      <c r="E28" s="6" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" ht="32.25">
+      <c r="C29" s="11" t="s">
+        <v>174</v>
+      </c>
+      <c r="D29" s="17" t="s">
+        <v>218</v>
+      </c>
+      <c r="E29" s="6" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" ht="32.25">
+      <c r="C30" s="11" t="s">
+        <v>175</v>
+      </c>
+      <c r="D30" s="7" t="s">
+        <v>219</v>
+      </c>
+      <c r="E30" s="6" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" ht="32.25">
+      <c r="C31" s="16" t="s">
+        <v>178</v>
+      </c>
+      <c r="D31" s="7" t="s">
+        <v>221</v>
+      </c>
+      <c r="E31" s="6" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5">
+      <c r="A32" s="6" t="s">
+        <v>222</v>
+      </c>
+      <c r="B32" s="6" t="s">
+        <v>223</v>
+      </c>
+      <c r="C32" s="11" t="s">
+        <v>175</v>
+      </c>
+      <c r="D32" s="7" t="s">
+        <v>224</v>
+      </c>
+      <c r="E32" s="6" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5">
+      <c r="C33" s="16" t="s">
+        <v>178</v>
+      </c>
+      <c r="D33" s="7" t="s">
+        <v>179</v>
+      </c>
+      <c r="E33" s="6" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5">
+      <c r="D34" s="7"/>
+    </row>
+    <row r="35" spans="1:5">
+      <c r="D35" s="7"/>
+    </row>
+    <row r="36" spans="1:5">
+      <c r="A36" s="9" t="s">
+        <v>226</v>
+      </c>
+      <c r="D36" s="7"/>
+    </row>
+    <row r="37" spans="1:5" ht="32.25">
+      <c r="A37" s="7" t="s">
+        <v>227</v>
+      </c>
+      <c r="B37" s="7" t="s">
+        <v>228</v>
+      </c>
+      <c r="C37" s="7" t="s">
+        <v>229</v>
+      </c>
+      <c r="D37" s="7" t="s">
+        <v>230</v>
+      </c>
+      <c r="E37" s="18" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" ht="32.25">
+      <c r="B38" s="7" t="s">
+        <v>228</v>
+      </c>
+      <c r="C38" s="7" t="s">
+        <v>231</v>
+      </c>
+      <c r="D38" s="7" t="s">
+        <v>232</v>
+      </c>
+      <c r="E38" s="18" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" ht="48.75">
+      <c r="A39" s="7" t="s">
+        <v>233</v>
+      </c>
+      <c r="B39" s="7" t="s">
+        <v>234</v>
+      </c>
+      <c r="C39" s="7" t="s">
+        <v>235</v>
+      </c>
+      <c r="D39" s="7" t="s">
+        <v>236</v>
+      </c>
+      <c r="E39" s="19"/>
+    </row>
+    <row r="40" spans="1:5" ht="48.75">
+      <c r="A40" s="7" t="s">
+        <v>233</v>
+      </c>
+      <c r="B40" s="7" t="s">
+        <v>234</v>
+      </c>
+      <c r="C40" s="7" t="s">
+        <v>237</v>
+      </c>
+      <c r="D40" s="7" t="s">
+        <v>238</v>
+      </c>
+      <c r="E40" s="19"/>
+    </row>
+    <row r="41" spans="1:5">
+      <c r="D41" s="7"/>
+    </row>
+    <row r="42" spans="1:5">
+      <c r="D42" s="7"/>
+    </row>
+    <row r="43" spans="1:5">
+      <c r="D43" s="7"/>
+    </row>
+    <row r="44" spans="1:5">
+      <c r="D44" s="7"/>
+    </row>
+    <row r="45" spans="1:5">
+      <c r="D45" s="7"/>
+    </row>
+    <row r="46" spans="1:5">
+      <c r="D46" s="7"/>
+    </row>
+    <row r="47" spans="1:5">
+      <c r="D47" s="7"/>
+    </row>
+    <row r="48" spans="1:5">
+      <c r="D48" s="7"/>
+    </row>
+    <row r="49" spans="1:4">
+      <c r="D49" s="7"/>
+    </row>
+    <row r="50" spans="1:4">
+      <c r="D50" s="7"/>
+    </row>
+    <row r="51" spans="1:4">
+      <c r="D51" s="7"/>
+    </row>
+    <row r="52" spans="1:4">
+      <c r="A52" s="8"/>
+      <c r="B52" s="8"/>
+      <c r="C52" s="7"/>
+      <c r="D52" s="7"/>
+    </row>
+    <row r="54" spans="1:4">
+      <c r="D54" s="7"/>
+    </row>
+    <row r="61" spans="1:4">
+      <c r="D61" s="7"/>
+    </row>
+    <row r="65" spans="4:4">
+      <c r="D65" s="7"/>
+    </row>
+    <row r="69" spans="4:4">
+      <c r="D69" s="7"/>
+    </row>
+    <row r="73" spans="4:4">
+      <c r="D73" s="7"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2787176C-BA87-403C-B7B6-ECBCE24FB7C3}">
   <dimension ref="A1"/>
   <sheetViews>

--- a/doc/見積もり_テストケース.xlsx
+++ b/doc/見積もり_テストケース.xlsx
@@ -1,18 +1,19 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="28318"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="28627"/>
   <workbookPr/>
-  <xr:revisionPtr revIDLastSave="1034" documentId="11_3F8216BDF2DCCE836B02CE998F0AE45F5E522874" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{81D9518A-E9D9-4D60-8493-3F66F4163CBD}"/>
+  <xr:revisionPtr revIDLastSave="1350" documentId="11_3F8216BDF2DCCE836B02CE998F0AE45F5E522874" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{801EE414-1D0A-46D3-9068-C12FBBFEBD76}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" firstSheet="3" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" firstSheet="4" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="見積もり依頼送信・詳細" sheetId="1" r:id="rId1"/>
     <sheet name="見積もり依頼受信・編集" sheetId="3" r:id="rId2"/>
     <sheet name="見積もり依頼受信・確認_詳細" sheetId="4" r:id="rId3"/>
     <sheet name="商品価格バリデーション" sheetId="5" r:id="rId4"/>
-    <sheet name="Sheet1" sheetId="2" r:id="rId5"/>
+    <sheet name="カテゴリ" sheetId="6" r:id="rId5"/>
+    <sheet name="Sheet1" sheetId="2" r:id="rId6"/>
   </sheets>
   <calcPr calcId="191028"/>
   <extLst>
@@ -35,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="684" uniqueCount="239">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="910" uniqueCount="330">
   <si>
     <t>テスト対象</t>
   </si>
@@ -847,6 +848,295 @@
     <t>「消費税別・込」が未入力
 「価格」が未入力
 「非表示価格」が未入力</t>
+  </si>
+  <si>
+    <t>新規カテゴリ</t>
+  </si>
+  <si>
+    <t>文言を確認する</t>
+  </si>
+  <si>
+    <t>以下の文言が表示されていること
+➕　新規追加カテゴリ</t>
+  </si>
+  <si>
+    <t>押下する</t>
+  </si>
+  <si>
+    <t>新規追加ダイアログが表示されること</t>
+  </si>
+  <si>
+    <t>新規追加ダイアログ</t>
+  </si>
+  <si>
+    <t>ヘッダー</t>
+  </si>
+  <si>
+    <t>新規カテゴリがクリックされていること</t>
+  </si>
+  <si>
+    <t>以下の文言が表示されていること
+カテゴリを作成</t>
+  </si>
+  <si>
+    <t>カテゴリ名（入力項目）</t>
+  </si>
+  <si>
+    <t>表示確認（初期表示）</t>
+  </si>
+  <si>
+    <t>文字入力後、ダイアログを閉じて再度ダイアログを開く</t>
+  </si>
+  <si>
+    <t>表示確認（プレースホルダー）</t>
+  </si>
+  <si>
+    <t>以下の文言が表示されていること
+カテゴリ名</t>
+  </si>
+  <si>
+    <t>機能確認（フロント：入力必須）</t>
+  </si>
+  <si>
+    <t>フィールドにフォーカスを当てた後、フォーカスを外す</t>
+  </si>
+  <si>
+    <t>下記エラーメッセージが表示されること
+入力は必須です</t>
+  </si>
+  <si>
+    <t>機能確認（フロント：文字数）</t>
+  </si>
+  <si>
+    <t>31文字以上入力されていること</t>
+  </si>
+  <si>
+    <t>31文字以上入力する</t>
+  </si>
+  <si>
+    <t>下記エラーメッセージが表示されること
+30文字以内で入力してください</t>
+  </si>
+  <si>
+    <t>キャンセル</t>
+  </si>
+  <si>
+    <t>表示確認（初期表示確認）</t>
+  </si>
+  <si>
+    <t>状態を確認する</t>
+  </si>
+  <si>
+    <t>活性状態であること</t>
+  </si>
+  <si>
+    <t>作成</t>
+  </si>
+  <si>
+    <t>初期表示であること</t>
+  </si>
+  <si>
+    <t>非活性状態であること</t>
+  </si>
+  <si>
+    <t>表示確認（状態確認）</t>
+  </si>
+  <si>
+    <t>入力項目に正常値が入っていること</t>
+  </si>
+  <si>
+    <t>機能確認（正常系・文書）</t>
+  </si>
+  <si>
+    <t>正常に登録できること</t>
+  </si>
+  <si>
+    <t>作成したカテゴリが追加されていること</t>
+  </si>
+  <si>
+    <t>機能確認（正常系・商品）</t>
+  </si>
+  <si>
+    <t>機能確認（必須チェック）</t>
+  </si>
+  <si>
+    <t>入力項目が空であること</t>
+  </si>
+  <si>
+    <t>下記エラーメッセージが表示されること
+入力必須です</t>
+  </si>
+  <si>
+    <t>入力項目が半角スペースのみであること</t>
+  </si>
+  <si>
+    <t>入力項目が全角スペースのみであること</t>
+  </si>
+  <si>
+    <t>機能確認（文字数チェック）</t>
+  </si>
+  <si>
+    <t>入力項目が31文字以上であること</t>
+  </si>
+  <si>
+    <t>機能確認（登録制限チェック）</t>
+  </si>
+  <si>
+    <t>登録済みのカテゴリが8個であること</t>
+  </si>
+  <si>
+    <t>下記エラーメッセージが表示されること
+{{ 選択中のカテゴリ }} カテゴリは最大8個までしか作成できません。</t>
+  </si>
+  <si>
+    <t>機能確認（同名チェック）</t>
+  </si>
+  <si>
+    <t>入力項目が重複するカテゴリの名前であること</t>
+  </si>
+  <si>
+    <t>下記エラーメッセージが表示されること
+この文書カテゴリ名は既に使用されています。</t>
+  </si>
+  <si>
+    <t>並び順を変更</t>
+  </si>
+  <si>
+    <t>以下の文言が表示されていること
+アイコン　並び順を変更</t>
+  </si>
+  <si>
+    <t>並び順ダイアログが表示されること</t>
+  </si>
+  <si>
+    <t>並び順ダイアログ</t>
+  </si>
+  <si>
+    <t>表示確認（文書）</t>
+  </si>
+  <si>
+    <t>文書カテゴリの「並び順を変更」がクリックされていること</t>
+  </si>
+  <si>
+    <t>以下の文言が表示されていること
+文書カテゴリの並び順を変更</t>
+  </si>
+  <si>
+    <t>表示確認（商品）</t>
+  </si>
+  <si>
+    <t>以下の文言が表示されていること
+商品カテゴリの並び順を変更</t>
+  </si>
+  <si>
+    <t>並び順</t>
+  </si>
+  <si>
+    <t>正常な並び順で表示されること</t>
+  </si>
+  <si>
+    <t>ドラッグ&amp;ドロップする</t>
+  </si>
+  <si>
+    <t>並び順を変更できること</t>
+  </si>
+  <si>
+    <t>保存</t>
+  </si>
+  <si>
+    <t>機能確認（正常系）</t>
+  </si>
+  <si>
+    <t>正常に変更できること</t>
+  </si>
+  <si>
+    <t>変更した順番通りに表示されること</t>
+  </si>
+  <si>
+    <t>カテゴリテーブル</t>
+  </si>
+  <si>
+    <t>カテゴリの登録数が0件であること</t>
+  </si>
+  <si>
+    <t>その他のみ表示されていること</t>
+  </si>
+  <si>
+    <t>カテゴリの登録数が1件以上であること</t>
+  </si>
+  <si>
+    <t>ヘッダー部が下記になっていること
+カテゴリID
+カテゴリ名
+編集ボタン
+削除ボタン</t>
+  </si>
+  <si>
+    <t>　カテゴリ行</t>
+  </si>
+  <si>
+    <t>　　カテゴリID</t>
+  </si>
+  <si>
+    <t>IDが表示されていること</t>
+  </si>
+  <si>
+    <t>　　カテゴリ名</t>
+  </si>
+  <si>
+    <t>カテゴリ名が表示されていること</t>
+  </si>
+  <si>
+    <t>　　編集アイコン</t>
+  </si>
+  <si>
+    <t>編集ダイアログが表示されること</t>
+  </si>
+  <si>
+    <t>　　削除アイコン</t>
+  </si>
+  <si>
+    <t>削除ダイアログが表示されること</t>
+  </si>
+  <si>
+    <t>　その他行</t>
+  </si>
+  <si>
+    <t>※編集・削除は不可</t>
+  </si>
+  <si>
+    <t>その他が表示されていること</t>
+  </si>
+  <si>
+    <t>編集ダイアログ</t>
+  </si>
+  <si>
+    <t>編集アイコンがクリックされていること</t>
+  </si>
+  <si>
+    <t>以下の文言が表示されていること
+カテゴリを編集</t>
+  </si>
+  <si>
+    <t>該当のカテゴリ名が表示されていること</t>
+  </si>
+  <si>
+    <t>更新</t>
+  </si>
+  <si>
+    <t>活性であること</t>
+  </si>
+  <si>
+    <t>入力項目に異常値が入っていること</t>
+  </si>
+  <si>
+    <t>非活性であること</t>
+  </si>
+  <si>
+    <t>正常に編集できること</t>
+  </si>
+  <si>
+    <t>作成したカテゴリが編集されていること</t>
   </si>
 </sst>
 </file>
@@ -939,7 +1229,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
@@ -997,6 +1287,18 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1334,8 +1636,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E45"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+    <sheetView topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
@@ -1602,8 +1904,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9A9DC3C6-C0E0-4756-B573-A3018EE27EA9}">
   <dimension ref="A1:E101"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C72" sqref="C72"/>
+    <sheetView topLeftCell="A31" workbookViewId="0">
+      <selection activeCell="B26" sqref="B26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -2728,8 +3030,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E2E2FFD5-0408-4AB2-888C-441B8D11EB58}">
   <dimension ref="A1:E78"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+    <sheetView topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="A12" sqref="A12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -3519,7 +3821,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B028BF9B-99D9-4DA2-A944-6AD3057E3E9C}">
   <dimension ref="A1:E73"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D41" sqref="D41"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
   <cols>
@@ -4098,6 +4402,1001 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6648E220-785E-4CB2-9461-2273130217F3}">
+  <dimension ref="A1:E81"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A51" workbookViewId="0">
+      <selection activeCell="B59" sqref="B59"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="18.75"/>
+  <cols>
+    <col min="1" max="1" width="23.875" style="1" customWidth="1"/>
+    <col min="2" max="3" width="32.125" style="1" customWidth="1"/>
+    <col min="4" max="4" width="29.375" style="1" customWidth="1"/>
+    <col min="5" max="5" width="49.125" style="1" customWidth="1"/>
+    <col min="6" max="16384" width="9" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5">
+      <c r="A2" s="5" t="s">
+        <v>239</v>
+      </c>
+      <c r="B2" s="21"/>
+      <c r="C2" s="20"/>
+      <c r="D2" s="20"/>
+      <c r="E2" s="20"/>
+    </row>
+    <row r="3" spans="1:5" ht="55.5">
+      <c r="A3" s="20"/>
+      <c r="B3" s="21" t="s">
+        <v>12</v>
+      </c>
+      <c r="C3" s="20" t="s">
+        <v>17</v>
+      </c>
+      <c r="D3" s="20" t="s">
+        <v>240</v>
+      </c>
+      <c r="E3" s="21" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5">
+      <c r="A4" s="20"/>
+      <c r="B4" s="21" t="s">
+        <v>119</v>
+      </c>
+      <c r="C4" s="20" t="s">
+        <v>17</v>
+      </c>
+      <c r="D4" s="20" t="s">
+        <v>242</v>
+      </c>
+      <c r="E4" s="21" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5">
+      <c r="A5" s="20"/>
+      <c r="B5" s="20"/>
+      <c r="C5" s="21"/>
+      <c r="D5" s="20"/>
+      <c r="E5" s="20"/>
+    </row>
+    <row r="6" spans="1:5">
+      <c r="A6" s="5" t="s">
+        <v>244</v>
+      </c>
+      <c r="B6" s="20"/>
+      <c r="C6" s="20"/>
+      <c r="D6" s="20"/>
+      <c r="E6" s="20"/>
+    </row>
+    <row r="7" spans="1:5" ht="56.25" customHeight="1">
+      <c r="A7" s="20" t="s">
+        <v>245</v>
+      </c>
+      <c r="B7" s="21" t="s">
+        <v>12</v>
+      </c>
+      <c r="C7" s="21" t="s">
+        <v>246</v>
+      </c>
+      <c r="D7" s="20" t="s">
+        <v>240</v>
+      </c>
+      <c r="E7" s="21" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5">
+      <c r="A8" s="20" t="s">
+        <v>248</v>
+      </c>
+      <c r="B8" s="21" t="s">
+        <v>249</v>
+      </c>
+      <c r="C8" s="21" t="s">
+        <v>25</v>
+      </c>
+      <c r="D8" s="21" t="s">
+        <v>25</v>
+      </c>
+      <c r="E8" s="21" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" ht="36.75">
+      <c r="A9" s="20"/>
+      <c r="B9" s="21" t="s">
+        <v>25</v>
+      </c>
+      <c r="C9" s="21" t="s">
+        <v>25</v>
+      </c>
+      <c r="D9" s="21" t="s">
+        <v>250</v>
+      </c>
+      <c r="E9" s="21" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" ht="55.5">
+      <c r="A10" s="20"/>
+      <c r="B10" s="21" t="s">
+        <v>251</v>
+      </c>
+      <c r="C10" s="21" t="s">
+        <v>25</v>
+      </c>
+      <c r="D10" s="21" t="s">
+        <v>25</v>
+      </c>
+      <c r="E10" s="21" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" ht="73.5">
+      <c r="A11" s="20"/>
+      <c r="B11" s="20" t="s">
+        <v>253</v>
+      </c>
+      <c r="C11" s="21" t="s">
+        <v>25</v>
+      </c>
+      <c r="D11" s="21" t="s">
+        <v>254</v>
+      </c>
+      <c r="E11" s="21" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" ht="73.5">
+      <c r="A12" s="20"/>
+      <c r="B12" s="20" t="s">
+        <v>256</v>
+      </c>
+      <c r="C12" s="21" t="s">
+        <v>257</v>
+      </c>
+      <c r="D12" s="21" t="s">
+        <v>258</v>
+      </c>
+      <c r="E12" s="21" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5">
+      <c r="A13" s="20" t="s">
+        <v>260</v>
+      </c>
+      <c r="B13" s="20" t="s">
+        <v>261</v>
+      </c>
+      <c r="C13" s="21" t="s">
+        <v>17</v>
+      </c>
+      <c r="D13" s="20" t="s">
+        <v>262</v>
+      </c>
+      <c r="E13" s="20" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5">
+      <c r="A14" s="20"/>
+      <c r="B14" s="20" t="s">
+        <v>119</v>
+      </c>
+      <c r="C14" s="21" t="s">
+        <v>17</v>
+      </c>
+      <c r="D14" s="20" t="s">
+        <v>242</v>
+      </c>
+      <c r="E14" s="20" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5">
+      <c r="A15" s="20" t="s">
+        <v>264</v>
+      </c>
+      <c r="B15" s="20" t="s">
+        <v>261</v>
+      </c>
+      <c r="C15" s="21" t="s">
+        <v>265</v>
+      </c>
+      <c r="D15" s="20" t="s">
+        <v>262</v>
+      </c>
+      <c r="E15" s="20" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" ht="36.75">
+      <c r="A16" s="20"/>
+      <c r="B16" s="20" t="s">
+        <v>267</v>
+      </c>
+      <c r="C16" s="21" t="s">
+        <v>268</v>
+      </c>
+      <c r="D16" s="20" t="s">
+        <v>25</v>
+      </c>
+      <c r="E16" s="20" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" ht="36.75">
+      <c r="A17" s="20"/>
+      <c r="B17" s="20" t="s">
+        <v>269</v>
+      </c>
+      <c r="C17" s="21" t="s">
+        <v>268</v>
+      </c>
+      <c r="D17" s="20" t="s">
+        <v>242</v>
+      </c>
+      <c r="E17" s="20" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5">
+      <c r="A18" s="20"/>
+      <c r="B18" s="20"/>
+      <c r="C18" s="21"/>
+      <c r="D18" s="20"/>
+      <c r="E18" s="20" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" ht="36.75">
+      <c r="A19" s="20"/>
+      <c r="B19" s="20" t="s">
+        <v>272</v>
+      </c>
+      <c r="C19" s="21" t="s">
+        <v>268</v>
+      </c>
+      <c r="D19" s="20" t="s">
+        <v>242</v>
+      </c>
+      <c r="E19" s="20" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5">
+      <c r="A20" s="20"/>
+      <c r="B20" s="20"/>
+      <c r="C20" s="21"/>
+      <c r="D20" s="20"/>
+      <c r="E20" s="20" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" ht="73.5">
+      <c r="A21" s="20"/>
+      <c r="B21" s="20" t="s">
+        <v>273</v>
+      </c>
+      <c r="C21" s="21" t="s">
+        <v>274</v>
+      </c>
+      <c r="D21" s="20" t="s">
+        <v>25</v>
+      </c>
+      <c r="E21" s="21" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" ht="55.5">
+      <c r="A22" s="20"/>
+      <c r="B22" s="20" t="s">
+        <v>273</v>
+      </c>
+      <c r="C22" s="21" t="s">
+        <v>276</v>
+      </c>
+      <c r="D22" s="20" t="s">
+        <v>25</v>
+      </c>
+      <c r="E22" s="21" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" ht="55.5">
+      <c r="A23" s="20"/>
+      <c r="B23" s="20" t="s">
+        <v>273</v>
+      </c>
+      <c r="C23" s="21" t="s">
+        <v>277</v>
+      </c>
+      <c r="D23" s="20" t="s">
+        <v>25</v>
+      </c>
+      <c r="E23" s="21" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" ht="55.5">
+      <c r="A24" s="20"/>
+      <c r="B24" s="20" t="s">
+        <v>278</v>
+      </c>
+      <c r="C24" s="21" t="s">
+        <v>279</v>
+      </c>
+      <c r="D24" s="20" t="s">
+        <v>25</v>
+      </c>
+      <c r="E24" s="21" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" ht="73.5">
+      <c r="A25" s="20"/>
+      <c r="B25" s="20" t="s">
+        <v>280</v>
+      </c>
+      <c r="C25" s="21" t="s">
+        <v>281</v>
+      </c>
+      <c r="D25" s="20" t="s">
+        <v>25</v>
+      </c>
+      <c r="E25" s="21" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" ht="55.5">
+      <c r="A26" s="20"/>
+      <c r="B26" s="20" t="s">
+        <v>283</v>
+      </c>
+      <c r="C26" s="21" t="s">
+        <v>284</v>
+      </c>
+      <c r="D26" s="20" t="s">
+        <v>25</v>
+      </c>
+      <c r="E26" s="21" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5">
+      <c r="A27" s="20"/>
+      <c r="B27" s="20"/>
+      <c r="C27" s="20"/>
+      <c r="D27" s="20"/>
+      <c r="E27" s="20"/>
+    </row>
+    <row r="28" spans="1:5">
+      <c r="A28" s="20"/>
+      <c r="B28" s="21"/>
+      <c r="C28" s="20"/>
+      <c r="D28" s="20"/>
+      <c r="E28" s="21"/>
+    </row>
+    <row r="29" spans="1:5">
+      <c r="A29" s="5" t="s">
+        <v>286</v>
+      </c>
+      <c r="B29" s="21"/>
+      <c r="C29" s="20"/>
+      <c r="D29" s="20"/>
+      <c r="E29" s="21"/>
+    </row>
+    <row r="30" spans="1:5" ht="56.25" customHeight="1">
+      <c r="A30" s="20"/>
+      <c r="B30" s="21" t="s">
+        <v>12</v>
+      </c>
+      <c r="C30" s="20" t="s">
+        <v>17</v>
+      </c>
+      <c r="D30" s="20" t="s">
+        <v>92</v>
+      </c>
+      <c r="E30" s="21" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5">
+      <c r="A31" s="20"/>
+      <c r="B31" s="21" t="s">
+        <v>119</v>
+      </c>
+      <c r="C31" s="20" t="s">
+        <v>17</v>
+      </c>
+      <c r="D31" s="20" t="s">
+        <v>242</v>
+      </c>
+      <c r="E31" s="21" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5">
+      <c r="A32" s="20"/>
+      <c r="B32" s="20"/>
+      <c r="C32" s="21"/>
+      <c r="D32" s="20"/>
+      <c r="E32" s="20"/>
+    </row>
+    <row r="33" spans="1:5">
+      <c r="A33" s="20"/>
+      <c r="B33" s="20"/>
+      <c r="C33" s="20"/>
+      <c r="D33" s="20"/>
+      <c r="E33" s="20"/>
+    </row>
+    <row r="34" spans="1:5">
+      <c r="A34" s="5" t="s">
+        <v>289</v>
+      </c>
+      <c r="B34" s="20"/>
+      <c r="C34" s="20"/>
+      <c r="D34" s="20"/>
+      <c r="E34" s="20"/>
+    </row>
+    <row r="35" spans="1:5" ht="55.5">
+      <c r="A35" s="20" t="s">
+        <v>245</v>
+      </c>
+      <c r="B35" s="21" t="s">
+        <v>290</v>
+      </c>
+      <c r="C35" s="21" t="s">
+        <v>291</v>
+      </c>
+      <c r="D35" s="20" t="s">
+        <v>240</v>
+      </c>
+      <c r="E35" s="21" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" ht="55.5">
+      <c r="A36" s="20"/>
+      <c r="B36" s="21" t="s">
+        <v>293</v>
+      </c>
+      <c r="C36" s="21" t="s">
+        <v>25</v>
+      </c>
+      <c r="D36" s="21" t="s">
+        <v>25</v>
+      </c>
+      <c r="E36" s="21" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5">
+      <c r="A37" s="20" t="s">
+        <v>295</v>
+      </c>
+      <c r="B37" s="21" t="s">
+        <v>249</v>
+      </c>
+      <c r="C37" s="21" t="s">
+        <v>25</v>
+      </c>
+      <c r="D37" s="21" t="s">
+        <v>25</v>
+      </c>
+      <c r="E37" s="21" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5">
+      <c r="A38" s="20"/>
+      <c r="B38" s="21" t="s">
+        <v>119</v>
+      </c>
+      <c r="C38" s="21" t="s">
+        <v>25</v>
+      </c>
+      <c r="D38" s="21" t="s">
+        <v>297</v>
+      </c>
+      <c r="E38" s="21" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5">
+      <c r="A39" s="20" t="s">
+        <v>260</v>
+      </c>
+      <c r="B39" s="20" t="s">
+        <v>261</v>
+      </c>
+      <c r="C39" s="21" t="s">
+        <v>17</v>
+      </c>
+      <c r="D39" s="20" t="s">
+        <v>262</v>
+      </c>
+      <c r="E39" s="20" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5">
+      <c r="A40" s="20"/>
+      <c r="B40" s="20" t="s">
+        <v>119</v>
+      </c>
+      <c r="C40" s="21" t="s">
+        <v>17</v>
+      </c>
+      <c r="D40" s="20" t="s">
+        <v>242</v>
+      </c>
+      <c r="E40" s="20" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5">
+      <c r="A41" s="20" t="s">
+        <v>299</v>
+      </c>
+      <c r="B41" s="20" t="s">
+        <v>261</v>
+      </c>
+      <c r="C41" s="21" t="s">
+        <v>17</v>
+      </c>
+      <c r="D41" s="20" t="s">
+        <v>262</v>
+      </c>
+      <c r="E41" s="20" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5">
+      <c r="A42" s="20"/>
+      <c r="B42" s="20" t="s">
+        <v>300</v>
+      </c>
+      <c r="C42" s="21" t="s">
+        <v>17</v>
+      </c>
+      <c r="D42" s="20" t="s">
+        <v>242</v>
+      </c>
+      <c r="E42" s="20" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5">
+      <c r="A43" s="20"/>
+      <c r="B43" s="20"/>
+      <c r="C43" s="20"/>
+      <c r="D43" s="20"/>
+      <c r="E43" s="22" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5">
+      <c r="A44" s="20"/>
+      <c r="B44" s="20"/>
+      <c r="C44" s="20"/>
+      <c r="D44" s="20"/>
+      <c r="E44" s="22"/>
+    </row>
+    <row r="45" spans="1:5">
+      <c r="A45" s="20"/>
+      <c r="B45" s="20"/>
+      <c r="C45" s="20"/>
+      <c r="D45" s="20"/>
+      <c r="E45" s="22"/>
+    </row>
+    <row r="46" spans="1:5">
+      <c r="A46" s="5" t="s">
+        <v>303</v>
+      </c>
+      <c r="B46" s="20"/>
+      <c r="C46" s="20"/>
+      <c r="D46" s="20"/>
+      <c r="E46" s="22"/>
+    </row>
+    <row r="47" spans="1:5">
+      <c r="A47" s="20"/>
+      <c r="B47" s="7" t="s">
+        <v>249</v>
+      </c>
+      <c r="C47" s="20" t="s">
+        <v>304</v>
+      </c>
+      <c r="D47" s="20"/>
+      <c r="E47" s="22" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5">
+      <c r="A48" s="20"/>
+      <c r="B48" s="7"/>
+      <c r="C48" s="21"/>
+      <c r="D48" s="20"/>
+      <c r="E48" s="22"/>
+    </row>
+    <row r="49" spans="1:5" s="21" customFormat="1"/>
+    <row r="50" spans="1:5" s="1" customFormat="1" ht="36.75">
+      <c r="A50" s="20" t="s">
+        <v>11</v>
+      </c>
+      <c r="B50" s="7"/>
+      <c r="C50" s="21" t="s">
+        <v>306</v>
+      </c>
+      <c r="D50" s="6"/>
+      <c r="E50" s="7"/>
+    </row>
+    <row r="51" spans="1:5" s="1" customFormat="1" ht="81">
+      <c r="A51" s="20"/>
+      <c r="B51" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="C51" s="21"/>
+      <c r="D51" s="6"/>
+      <c r="E51" s="7" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5" s="1" customFormat="1" ht="36.75">
+      <c r="A52" s="20" t="s">
+        <v>14</v>
+      </c>
+      <c r="B52" s="20"/>
+      <c r="C52" s="21" t="s">
+        <v>306</v>
+      </c>
+      <c r="D52" s="20"/>
+      <c r="E52" s="23"/>
+    </row>
+    <row r="53" spans="1:5" s="1" customFormat="1">
+      <c r="A53" s="20" t="s">
+        <v>308</v>
+      </c>
+      <c r="B53" s="20"/>
+      <c r="C53" s="20"/>
+      <c r="D53" s="20"/>
+      <c r="E53" s="20"/>
+    </row>
+    <row r="54" spans="1:5" s="1" customFormat="1">
+      <c r="A54" s="20" t="s">
+        <v>309</v>
+      </c>
+      <c r="B54" s="20"/>
+      <c r="C54" s="20"/>
+      <c r="D54" s="20"/>
+      <c r="E54" s="20" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="55" spans="1:5" s="1" customFormat="1">
+      <c r="A55" s="20" t="s">
+        <v>311</v>
+      </c>
+      <c r="B55" s="20"/>
+      <c r="C55" s="20"/>
+      <c r="D55" s="20"/>
+      <c r="E55" s="20" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="56" spans="1:5" s="1" customFormat="1">
+      <c r="A56" s="20" t="s">
+        <v>313</v>
+      </c>
+      <c r="D56" s="1" t="s">
+        <v>242</v>
+      </c>
+      <c r="E56" s="1" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="57" spans="1:5" s="1" customFormat="1">
+      <c r="A57" s="20" t="s">
+        <v>315</v>
+      </c>
+      <c r="D57" s="1" t="s">
+        <v>242</v>
+      </c>
+      <c r="E57" s="1" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="58" spans="1:5" s="1" customFormat="1">
+      <c r="A58" s="20" t="s">
+        <v>317</v>
+      </c>
+      <c r="B58" s="20" t="s">
+        <v>318</v>
+      </c>
+      <c r="C58" s="20"/>
+      <c r="D58" s="20"/>
+      <c r="E58" s="20"/>
+    </row>
+    <row r="59" spans="1:5" s="1" customFormat="1">
+      <c r="A59" s="20" t="s">
+        <v>309</v>
+      </c>
+      <c r="B59" s="20"/>
+      <c r="C59" s="20"/>
+      <c r="D59" s="20"/>
+      <c r="E59" s="20" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="60" spans="1:5" s="1" customFormat="1">
+      <c r="A60" s="20" t="s">
+        <v>311</v>
+      </c>
+      <c r="B60" s="20"/>
+      <c r="C60" s="20"/>
+      <c r="D60" s="20"/>
+      <c r="E60" s="20" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="63" spans="1:5" s="1" customFormat="1">
+      <c r="A63" s="1" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="64" spans="1:5" s="1" customFormat="1" ht="59.25" customHeight="1">
+      <c r="A64" s="20" t="s">
+        <v>245</v>
+      </c>
+      <c r="B64" s="21" t="s">
+        <v>12</v>
+      </c>
+      <c r="C64" s="21" t="s">
+        <v>321</v>
+      </c>
+      <c r="D64" s="20" t="s">
+        <v>240</v>
+      </c>
+      <c r="E64" s="21" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="65" spans="1:5" s="1" customFormat="1">
+      <c r="A65" s="20" t="s">
+        <v>248</v>
+      </c>
+      <c r="B65" s="21" t="s">
+        <v>12</v>
+      </c>
+      <c r="C65" s="21" t="s">
+        <v>25</v>
+      </c>
+      <c r="D65" s="21" t="s">
+        <v>25</v>
+      </c>
+      <c r="E65" s="21" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="66" spans="1:5" s="1" customFormat="1">
+      <c r="A66" s="20" t="s">
+        <v>260</v>
+      </c>
+      <c r="B66" s="20" t="s">
+        <v>261</v>
+      </c>
+      <c r="C66" s="21" t="s">
+        <v>17</v>
+      </c>
+      <c r="D66" s="20" t="s">
+        <v>262</v>
+      </c>
+      <c r="E66" s="20" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="67" spans="1:5" s="1" customFormat="1">
+      <c r="A67" s="20"/>
+      <c r="B67" s="20" t="s">
+        <v>119</v>
+      </c>
+      <c r="C67" s="21" t="s">
+        <v>17</v>
+      </c>
+      <c r="D67" s="20" t="s">
+        <v>242</v>
+      </c>
+      <c r="E67" s="20" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="68" spans="1:5" s="1" customFormat="1">
+      <c r="A68" s="20" t="s">
+        <v>324</v>
+      </c>
+      <c r="B68" s="20" t="s">
+        <v>261</v>
+      </c>
+      <c r="C68" s="21" t="s">
+        <v>265</v>
+      </c>
+      <c r="D68" s="20" t="s">
+        <v>262</v>
+      </c>
+      <c r="E68" s="20" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="69" spans="1:5" s="1" customFormat="1">
+      <c r="A69" s="20"/>
+      <c r="B69" s="20" t="s">
+        <v>267</v>
+      </c>
+      <c r="C69" s="21" t="s">
+        <v>326</v>
+      </c>
+      <c r="D69" s="20" t="s">
+        <v>25</v>
+      </c>
+      <c r="E69" s="20" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="70" spans="1:5" s="1" customFormat="1">
+      <c r="A70" s="20"/>
+      <c r="B70" s="20" t="s">
+        <v>269</v>
+      </c>
+      <c r="C70" s="21" t="s">
+        <v>268</v>
+      </c>
+      <c r="D70" s="20" t="s">
+        <v>242</v>
+      </c>
+      <c r="E70" s="20" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="71" spans="1:5" s="1" customFormat="1">
+      <c r="A71" s="20"/>
+      <c r="B71" s="20"/>
+      <c r="C71" s="21"/>
+      <c r="D71" s="20"/>
+      <c r="E71" s="20" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="72" spans="1:5" s="1" customFormat="1">
+      <c r="A72" s="20"/>
+      <c r="B72" s="20" t="s">
+        <v>272</v>
+      </c>
+      <c r="C72" s="21" t="s">
+        <v>268</v>
+      </c>
+      <c r="D72" s="20" t="s">
+        <v>242</v>
+      </c>
+      <c r="E72" s="20" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="73" spans="1:5" s="1" customFormat="1">
+      <c r="A73" s="20"/>
+      <c r="B73" s="20"/>
+      <c r="C73" s="21"/>
+      <c r="D73" s="20"/>
+      <c r="E73" s="20" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="74" spans="1:5" s="1" customFormat="1" ht="55.5">
+      <c r="A74" s="20"/>
+      <c r="B74" s="20" t="s">
+        <v>273</v>
+      </c>
+      <c r="C74" s="21" t="s">
+        <v>274</v>
+      </c>
+      <c r="D74" s="20" t="s">
+        <v>25</v>
+      </c>
+      <c r="E74" s="21" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="75" spans="1:5" s="1" customFormat="1" ht="55.5">
+      <c r="A75" s="20"/>
+      <c r="B75" s="20" t="s">
+        <v>273</v>
+      </c>
+      <c r="C75" s="21" t="s">
+        <v>276</v>
+      </c>
+      <c r="D75" s="20" t="s">
+        <v>25</v>
+      </c>
+      <c r="E75" s="21" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="76" spans="1:5" s="1" customFormat="1" ht="55.5">
+      <c r="A76" s="20"/>
+      <c r="B76" s="20" t="s">
+        <v>273</v>
+      </c>
+      <c r="C76" s="21" t="s">
+        <v>277</v>
+      </c>
+      <c r="D76" s="20" t="s">
+        <v>25</v>
+      </c>
+      <c r="E76" s="21" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="77" spans="1:5" s="1" customFormat="1" ht="55.5">
+      <c r="A77" s="20"/>
+      <c r="B77" s="20" t="s">
+        <v>278</v>
+      </c>
+      <c r="C77" s="21" t="s">
+        <v>279</v>
+      </c>
+      <c r="D77" s="20" t="s">
+        <v>25</v>
+      </c>
+      <c r="E77" s="21" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="78" spans="1:5" s="1" customFormat="1" ht="55.5">
+      <c r="A78" s="20"/>
+      <c r="B78" s="20" t="s">
+        <v>283</v>
+      </c>
+      <c r="C78" s="21" t="s">
+        <v>284</v>
+      </c>
+      <c r="D78" s="20" t="s">
+        <v>25</v>
+      </c>
+      <c r="E78" s="21" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="79" spans="1:5" s="1" customFormat="1"/>
+    <row r="80" spans="1:5" s="1" customFormat="1"/>
+    <row r="81" s="1" customFormat="1"/>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2787176C-BA87-403C-B7B6-ECBCE24FB7C3}">
   <dimension ref="A1"/>
   <sheetViews>
